--- a/processed_data/problem_1/line_5.xlsx
+++ b/processed_data/problem_1/line_5.xlsx
@@ -476,7 +476,7 @@
         <v>176</v>
       </c>
       <c r="E2" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         <v>176</v>
       </c>
       <c r="E3" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>176</v>
       </c>
       <c r="E4" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>176</v>
       </c>
       <c r="E5" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         <v>176</v>
       </c>
       <c r="E6" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>176</v>
       </c>
       <c r="E7" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>136</v>
       </c>
       <c r="E8" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>136</v>
       </c>
       <c r="E9" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>136</v>
       </c>
       <c r="E10" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>136</v>
       </c>
       <c r="E11" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>136</v>
       </c>
       <c r="E12" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         <v>136</v>
       </c>
       <c r="E13" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>136</v>
       </c>
       <c r="E14" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>136</v>
       </c>
       <c r="E15" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>136</v>
       </c>
       <c r="E16" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>136</v>
       </c>
       <c r="E17" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>136</v>
       </c>
       <c r="E18" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         <v>136</v>
       </c>
       <c r="E19" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>124</v>
       </c>
       <c r="E20" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         <v>124</v>
       </c>
       <c r="E21" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>124</v>
       </c>
       <c r="E22" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         <v>124</v>
       </c>
       <c r="E23" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>124</v>
       </c>
       <c r="E24" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
         <v>124</v>
       </c>
       <c r="E25" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>124</v>
       </c>
       <c r="E27" t="n">
-        <v>57600</v>
+        <v>18000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>161</v>
       </c>
       <c r="E28" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>161</v>
       </c>
       <c r="E29" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
         <v>161</v>
       </c>
       <c r="E30" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>87</v>
       </c>
       <c r="E32" t="n">
-        <v>14400</v>
+        <v>4500</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>146</v>
       </c>
       <c r="E33" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>146</v>
       </c>
       <c r="E34" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>146</v>
       </c>
       <c r="E35" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>146</v>
       </c>
       <c r="E36" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>146</v>
       </c>
       <c r="E37" t="n">
-        <v>7200</v>
+        <v>2250</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
         <v>146</v>
       </c>
       <c r="E38" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>146</v>
       </c>
       <c r="E39" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>146</v>
       </c>
       <c r="E40" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>146</v>
       </c>
       <c r="E41" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>146</v>
       </c>
       <c r="E42" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>186</v>
       </c>
       <c r="E43" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         <v>186</v>
       </c>
       <c r="E44" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         <v>186</v>
       </c>
       <c r="E45" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>146</v>
       </c>
       <c r="E46" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>146</v>
       </c>
       <c r="E47" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         <v>146</v>
       </c>
       <c r="E48" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         <v>146</v>
       </c>
       <c r="E49" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>146</v>
       </c>
       <c r="E50" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>384</v>
       </c>
       <c r="E51" t="n">
-        <v>28800</v>
+        <v>9000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
